--- a/biology/Médecine/Paul-Louis_Ladame/Paul-Louis_Ladame.xlsx
+++ b/biology/Médecine/Paul-Louis_Ladame/Paul-Louis_Ladame.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul-Louis Ladame, né le 15 juin 1842 à Neuchâtel et mort le 21 octobre 1919 à Genève, est un médecin neurologue et philanthrope suisse.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils du physicien Henri Ladame (1807-1870), il étudie la médecine à Zurich où il est l'élève de Griesinger, à  Wurzbourg et à Paris où il est influencé par Charcot. Il obtient son diplôme de médecine à Berne, en 1865, avec une thèse de doctorat intitulée (de)Symptomatologie und Diagnostik des Hirngeschwülste (symptomatologie et diagnostic des tumeurs du cerveau). Il est médecin-adjoint à l'hôpital Pourtalès de Neuchâtel de 1865 à 1866 et Médecin-chirurgien au Locle de 1866 à 1878. Durant cette période, il s'engage énergiquement dans diverses causes ayant trait à l'hygiénisme et au progrès social, militant notamment pour l'abolition des maisons de tolérance de la Chaux-de-Fonds. Intéressé par les problèmes de protection de l'enfance, il entreprend en 1879 un voyage à travers la Suisse et d'autres pays européens pour y étudier les systèmes éducatifs destinés aux orphelins. Il est directeur, en 1880, du premier orphelinat du canton de Neuchâtel à Dombresson. Il complète en outre, jusqu'en 1883, sa formation neurologique dans différents centres cliniques de Paris et de Berlin.
 C'est en 1884 qu'il s'établit définitivement à Genève. Nommé Privat-docent de l'université de Genève, il y enseignera la neurologie, la psychiatrie et l'anthropologie criminelle jusqu'en 1908.
-À la fin des années 1880, Ladame s'intéresse particulièrement aux applications médicales de l'hypnose et défend avec Charcot un point de vue scientifique en opposition à la tradition des magnétiseurs[1]. Il consacre aussi une part notable de son activité à des études sur les applications médicales de l'électricité : en 1885, il est l'auteur d'un important travail de revue sur l'histoire de l'électrothérapie dans lequel il insiste sur le rôle pionnier du Genevois Jean Jallabert (1712-1768).
+À la fin des années 1880, Ladame s'intéresse particulièrement aux applications médicales de l'hypnose et défend avec Charcot un point de vue scientifique en opposition à la tradition des magnétiseurs. Il consacre aussi une part notable de son activité à des études sur les applications médicales de l'électricité : en 1885, il est l'auteur d'un important travail de revue sur l'histoire de l'électrothérapie dans lequel il insiste sur le rôle pionnier du Genevois Jean Jallabert (1712-1768).
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Titres et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Fondateur et président (en 1874) de la Société médicale de Neuchâtel
 Membre de la Société médicale de Genève (président en 1892)
@@ -579,7 +595,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>De la température de l'homme : recherches physiologiques et pathologiques, 1866, imp. Wolfrath et Metzner, Neuchâtel, Texte intégral.
 Les orphelinats de la Suisse et des principaux pays de l'Europe, [avec un aperçu historique], Paris, Neuchâtel, Genève, 1879.
